--- a/para/Swi/2MBI200XBE120.xlsx
+++ b/para/Swi/2MBI200XBE120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q516645\Desktop\Github\PyPowerSim\para\Swi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Swi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3228DBA-5761-4DC5-81E2-BB3FDF7A2D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D3228DBA-5761-4DC5-81E2-BB3FDF7A2D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0BB9407-DD21-4AA0-8711-6F7B621E06E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="167">
   <si>
     <t>Parameter</t>
   </si>
@@ -484,18 +484,6 @@
     <t>If</t>
   </si>
   <si>
-    <t>Maximum rated blocking voltage, e.g. Vce,max or Vds, max</t>
-  </si>
-  <si>
-    <t>Vmax</t>
-  </si>
-  <si>
-    <t>maximum rated channel current, e.g. Ice,max or Ids,max</t>
-  </si>
-  <si>
-    <t>Imax</t>
-  </si>
-  <si>
     <t>On-State channel current</t>
   </si>
   <si>
@@ -536,6 +524,21 @@
   </si>
   <si>
     <t>https://felib.fujielectric.co.jp/en/M10013/M20088/document_detail/d79b3353-e827-445f-9d5b-531623091cfc?region=en-glb&amp;_gl=1*1p0bci8*_ga*MTMyNDY2Mjc3Ny4xNzAxMzIzMzIz*_ga_YGMNRLDSD5*MTcwMTMyMzMyMy4xLjEuMTcwMTMyMzgwMy4wLjAuMA..</t>
+  </si>
+  <si>
+    <t>Ifd (A)</t>
+  </si>
+  <si>
+    <t>Rated blocking voltage, e.g. Vce or Vds, used for linearly scaling switching losses</t>
+  </si>
+  <si>
+    <t>Vnom</t>
+  </si>
+  <si>
+    <t>Rated channel current, e.g. Ice or Ids, used for linearly scaling switching losses</t>
+  </si>
+  <si>
+    <t>Inom</t>
   </si>
 </sst>
 </file>
@@ -964,8 +967,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -983,7 +986,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1045,7 +1048,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2174,7 +2177,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2212,7 +2215,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -2291,7 +2294,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2329,7 +2332,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -2371,7 +2374,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2408,7 +2411,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2422,7 +2425,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2489,7 +2492,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2766,7 +2769,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2804,7 +2807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="371713647"/>
@@ -2883,7 +2886,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2921,7 +2924,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="371716975"/>
@@ -2969,7 +2972,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2983,7 +2986,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3045,7 +3048,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4174,7 +4177,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4212,7 +4215,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -4292,7 +4295,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4330,7 +4333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -4372,7 +4375,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4409,7 +4412,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4423,7 +4426,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4485,7 +4488,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5614,7 +5617,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5652,7 +5655,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -5732,7 +5735,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5770,7 +5773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -5812,7 +5815,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5849,7 +5852,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5863,7 +5866,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5925,7 +5928,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7024,11 +7027,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Ice (A) / Ids (A)</a:t>
+                  <a:t>Ifd (A)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40756537037037038"/>
+              <c:y val="0.86203837509026682"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7054,7 +7065,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7092,7 +7103,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -7172,7 +7183,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7210,7 +7221,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -7252,7 +7263,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7289,7 +7300,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7303,7 +7314,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7365,7 +7376,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8494,7 +8505,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8532,7 +8543,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -8612,7 +8623,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8650,7 +8661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -8692,7 +8703,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8729,7 +8740,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8743,7 +8754,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8805,7 +8816,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9925,7 +9936,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9963,7 +9974,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -10043,7 +10054,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10081,7 +10092,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -10123,7 +10134,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10160,7 +10171,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10174,7 +10185,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10236,7 +10247,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11356,7 +11367,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11394,7 +11405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -11474,7 +11485,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11512,7 +11523,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -11554,7 +11565,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11591,7 +11602,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11605,7 +11616,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11667,7 +11678,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12787,7 +12798,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12825,7 +12836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -12905,7 +12916,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12943,7 +12954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -12985,7 +12996,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13022,7 +13033,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13036,7 +13047,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13103,7 +13114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13563,7 +13574,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13601,7 +13612,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="376257311"/>
@@ -13680,7 +13691,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13718,7 +13729,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="376260639"/>
@@ -13760,7 +13771,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13797,7 +13808,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19752,6 +19763,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20021,7 +20036,7 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -20032,7 +20047,7 @@
         <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -20048,7 +20063,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20067,7 +20082,7 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -20075,7 +20090,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -20083,7 +20098,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -20091,7 +20106,7 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -20136,14 +20151,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB0370-656A-4BCA-B950-AA707D31C9FC}">
   <dimension ref="A1:AA184"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:D103"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="106.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -20354,16 +20369,19 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E7" s="16">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
@@ -20465,16 +20483,16 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E10" s="16">
         <v>15</v>
@@ -20555,16 +20573,16 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E13" s="16">
         <v>2.8</v>
@@ -20621,19 +20639,19 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E15" s="16">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -21907,7 +21925,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="B93" s="44" t="s">
         <v>57</v>
@@ -21967,7 +21985,7 @@
     </row>
     <row r="95" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
-        <f>F$16</f>
+        <f>F$17</f>
         <v>0</v>
       </c>
       <c r="B95" s="17">
@@ -21989,7 +22007,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="29">
-        <f>G$16</f>
+        <f>G$17</f>
         <v>10</v>
       </c>
       <c r="B96" s="17">
@@ -22011,7 +22029,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="29">
-        <f>H$16</f>
+        <f>H$17</f>
         <v>20</v>
       </c>
       <c r="B97" s="17">
@@ -22033,7 +22051,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="29">
-        <f>I$16</f>
+        <f>I$17</f>
         <v>50</v>
       </c>
       <c r="B98" s="17">
@@ -22055,7 +22073,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
-        <f>J$16</f>
+        <f>J$17</f>
         <v>100</v>
       </c>
       <c r="B99" s="17">
@@ -22077,7 +22095,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="29">
-        <f>K$16</f>
+        <f>K$17</f>
         <v>150</v>
       </c>
       <c r="B100" s="17">
@@ -22099,7 +22117,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
-        <f>L$16</f>
+        <f>L$17</f>
         <v>200</v>
       </c>
       <c r="B101" s="17">
@@ -22121,7 +22139,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="29">
-        <f>M$16</f>
+        <f>M$17</f>
         <v>300</v>
       </c>
       <c r="B102" s="17">
@@ -22143,7 +22161,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
-        <f>N$16</f>
+        <f>N$17</f>
         <v>400</v>
       </c>
       <c r="B103" s="17">
@@ -23363,11 +23381,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF10A5AF-6534-4D65-85BA-4292797F34F0}">
   <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>

--- a/para/Swi/2MBI200XBE120.xlsx
+++ b/para/Swi/2MBI200XBE120.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Swi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D3228DBA-5761-4DC5-81E2-BB3FDF7A2D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0BB9407-DD21-4AA0-8711-6F7B621E06E5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{D3228DBA-5761-4DC5-81E2-BB3FDF7A2D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE51901-D2A4-41AB-B1B1-94A1055F80AA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,6 +947,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,15 +963,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20151,14 +20151,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB0370-656A-4BCA-B950-AA707D31C9FC}">
   <dimension ref="A1:AA184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -21039,36 +21039,36 @@
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="43"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="46"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="46"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="43"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
@@ -21329,36 +21329,36 @@
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="43"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="46"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="46"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="43"/>
     </row>
     <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="33"/>
@@ -21619,36 +21619,36 @@
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="43"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="46"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="46"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="43"/>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
@@ -21909,36 +21909,36 @@
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="43"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="46"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="44" t="s">
+      <c r="B93" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="46"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="43"/>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="32"/>
@@ -22199,37 +22199,37 @@
     </row>
     <row r="111" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="41" t="s">
+      <c r="A112" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="42"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="42"/>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
-      <c r="K112" s="43"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="46"/>
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B113" s="44" t="s">
+      <c r="B113" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
-      <c r="K113" s="46"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+      <c r="K113" s="43"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22502,36 +22502,36 @@
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="41" t="s">
+      <c r="A132" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="42"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="42"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="42"/>
-      <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="42"/>
-      <c r="J132" s="42"/>
-      <c r="K132" s="43"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="45"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="45"/>
+      <c r="I132" s="45"/>
+      <c r="J132" s="45"/>
+      <c r="K132" s="46"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B133" s="44" t="s">
+      <c r="B133" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="45"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="45"/>
-      <c r="I133" s="45"/>
-      <c r="J133" s="45"/>
-      <c r="K133" s="46"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+      <c r="K133" s="43"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="32"/>
@@ -22786,36 +22786,36 @@
     </row>
     <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="41" t="s">
+      <c r="A152" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B152" s="42"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="42"/>
-      <c r="E152" s="42"/>
-      <c r="F152" s="42"/>
-      <c r="G152" s="42"/>
-      <c r="H152" s="42"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="42"/>
-      <c r="K152" s="43"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="45"/>
+      <c r="E152" s="45"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="45"/>
+      <c r="I152" s="45"/>
+      <c r="J152" s="45"/>
+      <c r="K152" s="46"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B153" s="44" t="s">
+      <c r="B153" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="45"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="45"/>
-      <c r="I153" s="45"/>
-      <c r="J153" s="45"/>
-      <c r="K153" s="46"/>
+      <c r="C153" s="42"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42"/>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42"/>
+      <c r="K153" s="43"/>
     </row>
     <row r="154" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="32"/>
@@ -23070,36 +23070,36 @@
     </row>
     <row r="171" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="41" t="s">
+      <c r="A172" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B172" s="42"/>
-      <c r="C172" s="42"/>
-      <c r="D172" s="42"/>
-      <c r="E172" s="42"/>
-      <c r="F172" s="42"/>
-      <c r="G172" s="42"/>
-      <c r="H172" s="42"/>
-      <c r="I172" s="42"/>
-      <c r="J172" s="42"/>
-      <c r="K172" s="43"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="45"/>
+      <c r="D172" s="45"/>
+      <c r="E172" s="45"/>
+      <c r="F172" s="45"/>
+      <c r="G172" s="45"/>
+      <c r="H172" s="45"/>
+      <c r="I172" s="45"/>
+      <c r="J172" s="45"/>
+      <c r="K172" s="46"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B173" s="44" t="s">
+      <c r="B173" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C173" s="45"/>
-      <c r="D173" s="45"/>
-      <c r="E173" s="45"/>
-      <c r="F173" s="45"/>
-      <c r="G173" s="45"/>
-      <c r="H173" s="45"/>
-      <c r="I173" s="45"/>
-      <c r="J173" s="45"/>
-      <c r="K173" s="46"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
+      <c r="G173" s="42"/>
+      <c r="H173" s="42"/>
+      <c r="I173" s="42"/>
+      <c r="J173" s="42"/>
+      <c r="K173" s="43"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="32"/>
@@ -23354,22 +23354,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="B113:K113"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="A72:K72"/>
     <mergeCell ref="A152:K152"/>
     <mergeCell ref="B153:K153"/>
     <mergeCell ref="A172:K172"/>
     <mergeCell ref="B173:K173"/>
     <mergeCell ref="A132:K132"/>
     <mergeCell ref="B133:K133"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="B113:K113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
